--- a/data/wa_test.xlsx
+++ b/data/wa_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamis\Projects\capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55509694-4BCF-4F97-93E0-D0462040DC99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D35E059-FF7E-455B-972F-4C53BB70A216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7F57176-6C0C-4F0B-B903-CBEB9B4233F4}"/>
+    <workbookView xWindow="-31215" yWindow="2145" windowWidth="5010" windowHeight="7800" xr2:uid="{F7F57176-6C0C-4F0B-B903-CBEB9B4233F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Sandhills Community College</t>
   </si>
@@ -63,21 +63,9 @@
     <t>https://webadvisor.johnstoncc.edu/WebAdvisor/WebAdvisor?TOKENIDX=2374134113&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
   </si>
   <si>
-    <t>sync and async together</t>
-  </si>
-  <si>
     <t>ONLIN</t>
   </si>
   <si>
-    <t>Caldwell Community College and Technical Institute</t>
-  </si>
-  <si>
-    <t>https://webadvisor.cccti.edu/WebAdvisor/WebAdvisor?TOKENIDX=1828158306&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Wayne Community College</t>
   </si>
   <si>
@@ -124,6 +112,9 @@
   </si>
   <si>
     <t>input</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -607,35 +598,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440C58EA-706D-4573-991F-9E7EC3E6C197}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="129.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -645,7 +641,9 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
@@ -661,7 +659,9 @@
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="6" t="s">
         <v>6</v>
@@ -678,10 +678,12 @@
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="4" t="s">
@@ -689,18 +691,18 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="4" t="s">
@@ -708,16 +710,18 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="4" t="s">
@@ -725,16 +729,18 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="4" t="s">
@@ -742,34 +748,16 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="http://www.free-4u.com/Colleges/Davidson-County-Community-College.html" xr:uid="{5CD586F9-5CE7-4D12-BC41-536D92998F54}"/>
     <hyperlink ref="A2" r:id="rId2" display="http://www.free-4u.com/Colleges/Sandhills-Community-College.html" xr:uid="{51C0568D-DD32-4696-9E48-96DB64CF26F0}"/>
-    <hyperlink ref="A5" r:id="rId3" display="http://www.free-4u.com/Colleges/Caldwell-Community-College-and-Technical-Institute.html" xr:uid="{0CF5920A-9C6D-46A4-9431-F9A284C32F54}"/>
-    <hyperlink ref="A4" r:id="rId4" display="http://www.free-4u.com/Colleges/Johnston-Community-College.html" xr:uid="{C0D5D3EA-E456-4EEB-B2BB-B04C76AF027E}"/>
-    <hyperlink ref="A6" r:id="rId5" display="http://www.free-4u.com/Colleges/Wayne-Community-College.html" xr:uid="{16DF6396-F861-4EDA-B950-B03B6FAD1611}"/>
-    <hyperlink ref="A7" r:id="rId6" display="http://www.free-4u.com/Colleges/Craven-Community-College.html" xr:uid="{1EC576E0-FB7A-4637-A710-63EDE9F40D7F}"/>
-    <hyperlink ref="A8" r:id="rId7" display="http://www.free-4u.com/Colleges/Edgecombe-Community-College.html" xr:uid="{F4835435-4A2A-4ED1-8A4C-575520892368}"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://www.free-4u.com/Colleges/Johnston-Community-College.html" xr:uid="{C0D5D3EA-E456-4EEB-B2BB-B04C76AF027E}"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://www.free-4u.com/Colleges/Wayne-Community-College.html" xr:uid="{16DF6396-F861-4EDA-B950-B03B6FAD1611}"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://www.free-4u.com/Colleges/Craven-Community-College.html" xr:uid="{1EC576E0-FB7A-4637-A710-63EDE9F40D7F}"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://www.free-4u.com/Colleges/Edgecombe-Community-College.html" xr:uid="{F4835435-4A2A-4ED1-8A4C-575520892368}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
